--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_80.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_80.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9553</v>
+        <v>2.1748</v>
       </c>
       <c r="J3" t="n">
-        <v>14.17</v>
+        <v>26.2</v>
       </c>
       <c r="K3" t="n">
-        <v>497.57</v>
+        <v>1022.98</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.95</v>
+        <v>2.17</v>
       </c>
       <c r="R3" t="n">
-        <v>968.1642000000001</v>
+        <v>1015.178</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7665</v>
+        <v>1.9833</v>
       </c>
       <c r="J4" t="n">
-        <v>25.47</v>
+        <v>17.06</v>
       </c>
       <c r="K4" t="n">
-        <v>807.72</v>
+        <v>607.5</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.72</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>892.4034</v>
+        <v>913.8904</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>8.5389</v>
+        <v>9.8179</v>
       </c>
       <c r="J5" t="n">
-        <v>27.13</v>
+        <v>26.87</v>
       </c>
       <c r="K5" t="n">
-        <v>4159.18</v>
+        <v>4736.32</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>11.08</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>3638.4101</v>
+        <v>3796.2366</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>10.1555</v>
+        <v>11.762</v>
       </c>
       <c r="J6" t="n">
-        <v>27.12</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
-        <v>4944.41</v>
+        <v>5700.86</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>8.99</v>
+        <v>6.89</v>
       </c>
       <c r="R6" t="n">
-        <v>2952.8124</v>
+        <v>3217.3472</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5497</v>
+        <v>5.1855</v>
       </c>
       <c r="J7" t="n">
-        <v>32.11</v>
+        <v>32.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2622.61</v>
+        <v>3010.17</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6.46</v>
+        <v>4.96</v>
       </c>
       <c r="R7" t="n">
-        <v>2121.0157</v>
+        <v>2316.0461</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7156</v>
+        <v>59.8209</v>
       </c>
       <c r="J8" t="n">
-        <v>4.15</v>
+        <v>4.22</v>
       </c>
       <c r="K8" t="n">
-        <v>3929.65</v>
+        <v>4528.42</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>11.78</v>
+        <v>9.08</v>
       </c>
       <c r="R8" t="n">
-        <v>3867.6589</v>
+        <v>4241.7074</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>11.9824</v>
+        <v>14.0772</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="K9" t="n">
-        <v>411.47</v>
+        <v>474.21</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>332.3054</v>
+        <v>378.3119</v>
       </c>
     </row>
   </sheetData>
